--- a/spring/Archivos/Formato/Formato.xlsx
+++ b/spring/Archivos/Formato/Formato.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23615"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B32EB5-DF5A-4069-9BDD-3D2DBE1204D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nombre</t>
   </si>
@@ -23,19 +38,23 @@
   </si>
   <si>
     <t>Costo</t>
+  </si>
+  <si>
+    <t>Clave del producto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -45,36 +64,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -264,20 +290,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -290,8 +324,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
--- a/spring/Archivos/Formato/Formato.xlsx
+++ b/spring/Archivos/Formato/Formato.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23615"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B32EB5-DF5A-4069-9BDD-3D2DBE1204D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Documents\ESCOM\TT\TT2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8488C02-3DA4-4658-8328-79514D86AE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="6420" windowWidth="14880" windowHeight="10995" xr2:uid="{125E69DC-7217-43FD-B5ED-EE6FD699303B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,23 +47,50 @@
     <t>Costo</t>
   </si>
   <si>
-    <t>Clave del producto</t>
+    <t>Grava</t>
+  </si>
+  <si>
+    <t>Arena</t>
+  </si>
+  <si>
+    <t>Cemento</t>
+  </si>
+  <si>
+    <t>Mortero</t>
+  </si>
+  <si>
+    <t>Varilla</t>
+  </si>
+  <si>
+    <t>Ladrillo Rojo</t>
+  </si>
+  <si>
+    <t>Ladrillo Block Ligero</t>
+  </si>
+  <si>
+    <t>Ladrillo Block Pesado</t>
+  </si>
+  <si>
+    <t>Clave de producto</t>
+  </si>
+  <si>
+    <t>Alambre</t>
+  </si>
+  <si>
+    <t>Varilla Armex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +113,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,56 +133,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -292,43 +419,99 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076CA25E-658D-4BAB-B5A1-1ECE7E45C5E6}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>